--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/20_Burdur_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/20_Burdur_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87B96108-B334-4109-B91F-1D614073FEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD69077B-BFA5-4491-B17C-A24063848F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{1E496351-6C54-43CA-ACD0-9A6FD35EBBEF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{64E4B918-BB73-4FFB-9826-E5A520BA8418}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -917,13 +917,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{862EAF8D-FB0D-4D52-9C9D-8BA88F76274B}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{7B0846E4-57DF-456D-893E-3A8A78A5BF82}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{C145D682-3FEC-4BEA-AF4C-5F768418D4D4}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{414DFA9B-EAA7-4D3A-842A-1CB5E260241A}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{657AACF4-F749-4EA0-AF5E-40DC7C8912D0}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{D6B33FB5-DB99-4EA9-9279-C6DFC0E954AE}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{1BF0A5DA-8CD3-4C09-8A7E-4635E31BE706}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{1678B491-349A-4B11-A2BD-7DDAAF707FA3}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{8FF98602-0156-4A0A-B3FB-A1F693484F0D}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{A060871D-EFFF-48BE-BFF8-6E66948E036D}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{59F2C02A-2102-424B-BBCE-D67EC08F50E0}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{ECF10351-1C31-4994-9961-F8E475D7AF85}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{E47175F5-67E2-48F6-86FC-910CE6DA2A50}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{35F03988-9E47-4353-B5EE-4011D5C31446}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1293,7 +1293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB53171-0874-4C2E-A953-16809BD7AB46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6591BAB9-B495-4C82-819D-919ACFBA309A}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2563,7 +2563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F674F93-C9B0-4C62-A9E5-D6910F5DCB22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B353D4E4-0381-4951-BD7F-08284D7A4E99}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3804,7 +3804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B7C444-8F9F-4D83-92AA-01FADE722271}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45BAD675-CC4D-4E85-A602-BAA02F56D943}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5033,7 +5033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3766FBF-D616-41B8-9096-E30752EDC8E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F167680-7D8E-4AEA-ABA0-0D6B5A28BA32}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6254,7 +6254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FFEE72-40F9-4DE7-AB6F-FEE9946D82CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A59E46C-453E-475E-8828-214B2121E63A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7529,7 +7529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A408D4FE-166E-4DAA-B43B-38BD6D6FD974}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD6038A-AE43-4885-B973-FB4E40263E39}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8804,7 +8804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6893F16-C6B0-48F5-80BB-93F9A97324F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41EE781D-CC9C-49CC-908A-359AA107C034}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10079,7 +10079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91719489-0FB0-4D15-86B7-7141FE5BFA86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DCBFFA-5E97-4B9D-8B56-EE83F18252BF}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11354,7 +11354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE93641-E9D4-4DCF-8A26-B67A7B9D7385}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF7B0FD-F139-41C0-98D7-B8B0FDEE07E6}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12629,7 +12629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF23FF29-10BF-49DB-A835-4DA37188618D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EA4DB1-E7C9-45B1-9FA4-3E2F89AAC70E}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13890,7 +13890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41D6014-E85B-4ED8-AE64-55E044DE2234}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F51AB6-1569-4909-8A67-1576A9B91C74}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15151,7 +15151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C58AC4-3FD1-4B19-A867-3135E831DB25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7104DFD-6CDB-4779-9B68-7F5300216EF5}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
